--- a/RLTesting/logs/Human Oracle.xlsx
+++ b/RLTesting/logs/Human Oracle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\research\shiyu\RL-testing-new\RLTesting\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B584E5A-1196-421A-AE41-2252C4E09C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0EF25-1A52-4F82-956C-C12F8B64B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F8398E37-C242-7E43-82DB-0DAF0C7D4774}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
   <si>
     <t>A2C</t>
   </si>
@@ -85,6 +85,41 @@
   </si>
   <si>
     <t>&gt;2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updating network</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training Loss function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training Optimizer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updating network</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploring the enviroment</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -152,12 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,19 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02552DD2-FE32-9749-AF91-8A39B373D189}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="19.921875" customWidth="1"/>
-    <col min="13" max="13" width="22.23046875" customWidth="1"/>
+    <col min="3" max="3" width="20.15234375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="13" max="13" width="19.921875" customWidth="1"/>
+    <col min="14" max="14" width="22.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -492,44 +532,47 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
         <v>24</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
@@ -542,28 +585,31 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -571,23 +617,26 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
         <v>26</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -600,23 +649,26 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
         <v>27</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -629,25 +681,28 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -658,23 +713,26 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -687,28 +745,31 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
         <v>30</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
@@ -721,32 +782,35 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="N8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
         <v>31</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -759,33 +823,36 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <f>COUNTIF(I2:I57,"&gt;2")</f>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <f>COUNTIF(J2:J57,"&gt;2")</f>
         <v>33</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -798,31 +865,34 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>23</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -836,90 +906,99 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -932,26 +1011,29 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
@@ -964,26 +1046,29 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>5</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
         <v>9</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
@@ -991,36 +1076,39 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <v>4</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1028,26 +1116,29 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
@@ -1060,26 +1151,29 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
@@ -1092,26 +1186,29 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>5</v>
       </c>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -1124,26 +1221,29 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
@@ -1151,31 +1251,34 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
@@ -1188,26 +1291,29 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
@@ -1218,25 +1324,28 @@
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
         <v>22</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
@@ -1247,25 +1356,28 @@
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
         <v>23</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
@@ -1278,23 +1390,26 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
         <v>7</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
@@ -1307,23 +1422,26 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
@@ -1336,52 +1454,58 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1">
         <v>26</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
@@ -1394,23 +1518,26 @@
       <c r="H29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
         <v>28</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
@@ -1423,23 +1550,26 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
         <v>33</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
@@ -1452,23 +1582,26 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
         <v>34</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
@@ -1481,23 +1614,26 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
         <v>35</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
@@ -1508,25 +1644,28 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1">
         <v>36</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
@@ -1539,23 +1678,26 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
         <v>37</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
@@ -1568,23 +1710,26 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
         <v>38</v>
       </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
@@ -1597,23 +1742,26 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
         <v>39</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
@@ -1626,23 +1774,26 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1">
         <v>24</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
@@ -1653,25 +1804,28 @@
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1">
         <v>25</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
@@ -1679,28 +1833,31 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1">
         <v>26</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
@@ -1708,28 +1865,31 @@
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1">
         <v>27</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
@@ -1737,57 +1897,63 @@
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1">
         <v>28</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
         <v>29</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
@@ -1798,54 +1964,60 @@
         <v>1</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
         <v>30</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
         <v>31</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
@@ -1856,25 +2028,28 @@
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1">
         <v>32</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
@@ -1885,25 +2060,28 @@
         <v>1</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1">
         <v>25</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
@@ -1916,23 +2094,26 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1">
         <v>26</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
@@ -1945,23 +2126,26 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1">
         <v>27</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
@@ -1974,23 +2158,26 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1">
         <v>28</v>
       </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
@@ -2003,23 +2190,26 @@
       <c r="H50" s="3">
         <v>0</v>
       </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1">
         <v>33</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
@@ -2032,23 +2222,26 @@
       <c r="H51" s="3">
         <v>1</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
         <v>34</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
@@ -2061,23 +2254,26 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="1">
         <v>35</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
@@ -2090,23 +2286,26 @@
       <c r="H53" s="3">
         <v>0</v>
       </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
         <v>36</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
@@ -2119,23 +2318,26 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1">
         <v>37</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
@@ -2148,52 +2350,58 @@
       <c r="H55" s="3">
         <v>0</v>
       </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
         <v>38</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1">
         <v>39</v>
       </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
       <c r="E57" s="3">
         <v>1</v>
       </c>
@@ -2206,23 +2414,24 @@
       <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
         <v>33</v>
       </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
@@ -2238,20 +2447,21 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
         <v>24</v>
       </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
@@ -2259,28 +2469,29 @@
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
         <v>40</v>
       </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
       <c r="E67" s="3">
         <v>0</v>
       </c>
@@ -2296,49 +2507,51 @@
       <c r="I67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
         <v>33</v>
       </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
       <c r="E68" s="3">
         <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
       </c>
       <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
         <v>40</v>
       </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
       <c r="E69" s="2">
         <v>0</v>
       </c>
@@ -2352,6 +2565,9 @@
         <v>0</v>
       </c>
       <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
         <v>0</v>
       </c>
     </row>
